--- a/Data/Variation_csv3.xlsx
+++ b/Data/Variation_csv3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliaadelsheim/Documents/Thesis/otteR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD4B39-63A9-4843-B83A-713C2CEAF804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF007659-6E5F-3846-A206-5D27A132B9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="500" windowWidth="25200" windowHeight="15840" xr2:uid="{BBDAB1C0-849B-9C4B-8551-D97582946570}"/>
   </bookViews>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10797D0-695A-3446-90AF-F5CD3DB7D62D}">
   <dimension ref="A1:K224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6549,7 +6549,7 @@
         <v>1.59</v>
       </c>
       <c r="H169" s="2">
-        <v>0.96</v>
+        <v>1.4</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>10</v>
